--- a/biology/Zoologie/Fufu_(chien)/Fufu_(chien).xlsx
+++ b/biology/Zoologie/Fufu_(chien)/Fufu_(chien).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le maréchal Fufu (thaï : ฟูฟู ; RTGS Fufu, 1997 - 2015) est un caniche, animal familier de Maha Vajiralongkorn, prince héritier de Thaïlande devenu en 2016 le roi Rama X.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'après le prince, sa fille Sirivannavari Nariratana aurait acheté le chiot âgé d'un mois sur un marché de Bangkok avec d'autres animaux de compagnie[1].
-Il devient célèbre lorsqu'une vidéo d'une fête pour l'anniversaire du chien fuite sur internet en 2007[2]. Montrant la femme du prince à demi nue et donnant à manger du gâteau à Fufu, la vidéo défraie la chronique[3].
-En 2011, Fufu est élevé au rang de major général[4] ou maréchal en chef de la force aérienne royale thaïlandaise[5].
-Le chien meurt en 2015, et sa mort donne lieu à des funérailles officielles suivies de quatre jours de cérémonie bouddhiste[2],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après le prince, sa fille Sirivannavari Nariratana aurait acheté le chiot âgé d'un mois sur un marché de Bangkok avec d'autres animaux de compagnie.
+Il devient célèbre lorsqu'une vidéo d'une fête pour l'anniversaire du chien fuite sur internet en 2007. Montrant la femme du prince à demi nue et donnant à manger du gâteau à Fufu, la vidéo défraie la chronique.
+En 2011, Fufu est élevé au rang de major général ou maréchal en chef de la force aérienne royale thaïlandaise.
+Le chien meurt en 2015, et sa mort donne lieu à des funérailles officielles suivies de quatre jours de cérémonie bouddhiste,.
 </t>
         </is>
       </c>
